--- a/Dane/config file.xlsx
+++ b/Dane/config file.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakpo_000\Desktop\Nauka\Inzynierka\Program\thesis\Dane\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="510" yWindow="600" windowWidth="8220" windowHeight="4815" activeTab="3"/>
   </bookViews>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="83">
   <si>
     <t>gene_names</t>
   </si>
@@ -103,9 +108,6 @@
     <t>Well</t>
   </si>
   <si>
-    <t>18p1</t>
-  </si>
-  <si>
     <t>50p1</t>
   </si>
   <si>
@@ -118,9 +120,6 @@
     <t>K3p1</t>
   </si>
   <si>
-    <t>18p2</t>
-  </si>
-  <si>
     <t>50p2</t>
   </si>
   <si>
@@ -133,12 +132,6 @@
     <t>K3p2</t>
   </si>
   <si>
-    <t>16p1</t>
-  </si>
-  <si>
-    <t>121+122p1</t>
-  </si>
-  <si>
     <t>62p1</t>
   </si>
   <si>
@@ -148,36 +141,18 @@
     <t>NTC</t>
   </si>
   <si>
-    <t>16p2</t>
-  </si>
-  <si>
-    <t>121+122p2</t>
-  </si>
-  <si>
     <t>62p2</t>
   </si>
   <si>
     <t>81p2</t>
   </si>
   <si>
-    <t>14p1</t>
-  </si>
-  <si>
-    <t>124+125p1</t>
-  </si>
-  <si>
     <t>71p1</t>
   </si>
   <si>
     <t>79p1</t>
   </si>
   <si>
-    <t>14p2</t>
-  </si>
-  <si>
-    <t>124+125p2</t>
-  </si>
-  <si>
     <t>71p2</t>
   </si>
   <si>
@@ -187,9 +162,6 @@
     <t>36p1</t>
   </si>
   <si>
-    <t>127+128p1</t>
-  </si>
-  <si>
     <t>70p1</t>
   </si>
   <si>
@@ -197,9 +169,6 @@
   </si>
   <si>
     <t>36p2</t>
-  </si>
-  <si>
-    <t>127+128p2</t>
   </si>
   <si>
     <t>70p2</t>
@@ -349,7 +318,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -366,9 +335,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -406,9 +375,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,7 +412,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -478,7 +447,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -928,10 +897,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E380"/>
+  <dimension ref="A1:E333"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,7 +924,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="e">
         <v>#N/A</v>
@@ -972,7 +941,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="e">
         <v>#N/A</v>
@@ -989,7 +958,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="e">
         <v>#N/A</v>
@@ -1006,7 +975,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="e">
         <v>#N/A</v>
@@ -1023,13 +992,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D6" t="e">
         <v>#N/A</v>
@@ -1040,10 +1009,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" t="e">
         <v>#N/A</v>
@@ -1057,10 +1026,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" t="e">
         <v>#N/A</v>
@@ -1074,10 +1043,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="e">
         <v>#N/A</v>
@@ -1091,16 +1060,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
+        <v>12</v>
+      </c>
+      <c r="B10" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C10" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D10" t="e">
-        <v>#N/A</v>
+      <c r="D10" t="s">
+        <v>28</v>
       </c>
       <c r="E10" t="e">
         <v>#N/A</v>
@@ -1108,16 +1077,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
+        <v>13</v>
+      </c>
+      <c r="B11" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D11" t="e">
-        <v>#N/A</v>
+      <c r="D11" t="s">
+        <v>29</v>
       </c>
       <c r="E11" t="e">
         <v>#N/A</v>
@@ -1125,7 +1094,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12" t="e">
         <v>#N/A</v>
@@ -1134,7 +1103,7 @@
         <v>#N/A</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E12" t="e">
         <v>#N/A</v>
@@ -1142,7 +1111,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13" t="e">
         <v>#N/A</v>
@@ -1151,7 +1120,7 @@
         <v>#N/A</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E13" t="e">
         <v>#N/A</v>
@@ -1159,7 +1128,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B14" t="e">
         <v>#N/A</v>
@@ -1167,16 +1136,16 @@
       <c r="C14" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" t="e">
-        <v>#N/A</v>
+      <c r="D14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B15" t="e">
         <v>#N/A</v>
@@ -1184,16 +1153,16 @@
       <c r="C15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" t="e">
-        <v>#N/A</v>
+      <c r="D15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B16" t="e">
         <v>#N/A</v>
@@ -1201,16 +1170,16 @@
       <c r="C16" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" t="e">
-        <v>#N/A</v>
+      <c r="D16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B17" t="e">
         <v>#N/A</v>
@@ -1222,12 +1191,12 @@
         <v>#N/A</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B18" t="e">
         <v>#N/A</v>
@@ -1238,13 +1207,13 @@
       <c r="D18" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E18" t="s">
-        <v>29</v>
+      <c r="E18" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="e">
         <v>#N/A</v>
@@ -1255,13 +1224,13 @@
       <c r="D19" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E19" t="s">
-        <v>30</v>
+      <c r="E19" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="e">
         <v>#N/A</v>
@@ -1272,13 +1241,13 @@
       <c r="D20" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E20" t="s">
-        <v>31</v>
+      <c r="E20" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B21" t="e">
         <v>#N/A</v>
@@ -1289,19 +1258,19 @@
       <c r="D21" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E21" t="s">
-        <v>32</v>
+      <c r="E21" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B22" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C22" t="e">
-        <v>#N/A</v>
+      <c r="C22" t="s">
+        <v>32</v>
       </c>
       <c r="D22" t="e">
         <v>#N/A</v>
@@ -1312,13 +1281,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B23" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C23" t="e">
-        <v>#N/A</v>
+      <c r="C23" t="s">
+        <v>33</v>
       </c>
       <c r="D23" t="e">
         <v>#N/A</v>
@@ -1329,13 +1298,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B24" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C24" t="e">
-        <v>#N/A</v>
+      <c r="C24" t="s">
+        <v>34</v>
       </c>
       <c r="D24" t="e">
         <v>#N/A</v>
@@ -1346,13 +1315,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B25" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C25" t="e">
-        <v>#N/A</v>
+      <c r="C25" t="s">
+        <v>35</v>
       </c>
       <c r="D25" t="e">
         <v>#N/A</v>
@@ -1363,13 +1332,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C26" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D26" t="e">
         <v>#N/A</v>
@@ -1380,13 +1349,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C27" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D27" t="e">
         <v>#N/A</v>
@@ -1397,13 +1366,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C28" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D28" t="e">
         <v>#N/A</v>
@@ -1414,13 +1383,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C29" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D29" t="e">
         <v>#N/A</v>
@@ -1431,16 +1400,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B30" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" t="e">
-        <v>#N/A</v>
+      <c r="C30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
       </c>
       <c r="E30" t="e">
         <v>#N/A</v>
@@ -1448,16 +1417,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D31" t="s">
         <v>33</v>
-      </c>
-      <c r="C31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D31" t="e">
-        <v>#N/A</v>
       </c>
       <c r="E31" t="e">
         <v>#N/A</v>
@@ -1465,16 +1434,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D32" t="s">
         <v>34</v>
-      </c>
-      <c r="C32" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D32" t="e">
-        <v>#N/A</v>
       </c>
       <c r="E32" t="e">
         <v>#N/A</v>
@@ -1482,16 +1451,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D33" t="s">
         <v>35</v>
-      </c>
-      <c r="C33" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D33" t="e">
-        <v>#N/A</v>
       </c>
       <c r="E33" t="e">
         <v>#N/A</v>
@@ -1499,10 +1468,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>36</v>
+        <v>41</v>
+      </c>
+      <c r="B34" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C34" t="e">
         <v>#N/A</v>
@@ -1510,16 +1479,16 @@
       <c r="D34" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E34" t="e">
-        <v>#N/A</v>
+      <c r="E34" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="B35" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C35" t="e">
         <v>#N/A</v>
@@ -1527,13 +1496,13 @@
       <c r="D35" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E35" t="e">
-        <v>#N/A</v>
+      <c r="E35" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B36" t="e">
         <v>#N/A</v>
@@ -1541,16 +1510,16 @@
       <c r="C36" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D36" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" t="e">
-        <v>#N/A</v>
+      <c r="D36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E36" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B37" t="e">
         <v>#N/A</v>
@@ -1558,16 +1527,16 @@
       <c r="C37" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D37" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" t="e">
-        <v>#N/A</v>
+      <c r="D37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E37" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B38" t="e">
         <v>#N/A</v>
@@ -1575,8 +1544,8 @@
       <c r="C38" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D38" t="s">
-        <v>35</v>
+      <c r="D38" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E38" t="e">
         <v>#N/A</v>
@@ -1584,7 +1553,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B39" t="e">
         <v>#N/A</v>
@@ -1592,8 +1561,8 @@
       <c r="C39" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D39" t="s">
-        <v>36</v>
+      <c r="D39" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E39" t="e">
         <v>#N/A</v>
@@ -1601,7 +1570,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B40" t="e">
         <v>#N/A</v>
@@ -1609,8 +1578,8 @@
       <c r="C40" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D40" t="s">
-        <v>37</v>
+      <c r="D40" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E40" t="e">
         <v>#N/A</v>
@@ -1618,7 +1587,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B41" t="e">
         <v>#N/A</v>
@@ -1629,64 +1598,64 @@
       <c r="D41" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E41" t="s">
-        <v>33</v>
+      <c r="E41" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B42" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C42" t="e">
-        <v>#N/A</v>
+      <c r="C42" t="s">
+        <v>36</v>
       </c>
       <c r="D42" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E42" t="s">
-        <v>34</v>
+      <c r="E42" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B43" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C43" t="e">
-        <v>#N/A</v>
+      <c r="C43" t="s">
+        <v>37</v>
       </c>
       <c r="D43" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E43" t="s">
-        <v>35</v>
+      <c r="E43" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B44" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C44" t="e">
-        <v>#N/A</v>
+      <c r="C44" t="s">
+        <v>38</v>
       </c>
       <c r="D44" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E44" t="s">
-        <v>36</v>
+      <c r="E44" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B45" t="e">
         <v>#N/A</v>
@@ -1697,13 +1666,13 @@
       <c r="D45" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E45" t="s">
-        <v>37</v>
+      <c r="E45" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B46" t="e">
         <v>#N/A</v>
@@ -1720,7 +1689,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B47" t="e">
         <v>#N/A</v>
@@ -1737,7 +1706,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B48" t="e">
         <v>#N/A</v>
@@ -1754,7 +1723,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B49" t="e">
         <v>#N/A</v>
@@ -1771,16 +1740,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B50" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C50" t="s">
-        <v>38</v>
-      </c>
-      <c r="D50" t="e">
-        <v>#N/A</v>
+      <c r="C50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D50" t="s">
+        <v>36</v>
       </c>
       <c r="E50" t="e">
         <v>#N/A</v>
@@ -1788,16 +1757,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B51" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C51" t="s">
-        <v>39</v>
-      </c>
-      <c r="D51" t="e">
-        <v>#N/A</v>
+      <c r="C51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D51" t="s">
+        <v>37</v>
       </c>
       <c r="E51" t="e">
         <v>#N/A</v>
@@ -1805,16 +1774,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B52" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C52" t="s">
-        <v>40</v>
-      </c>
-      <c r="D52" t="e">
-        <v>#N/A</v>
+      <c r="C52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D52" t="s">
+        <v>38</v>
       </c>
       <c r="E52" t="e">
         <v>#N/A</v>
@@ -1822,41 +1791,41 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C53" t="s">
-        <v>41</v>
+      <c r="C53" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E53" t="e">
-        <v>#N/A</v>
+      <c r="E53" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B54" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C54" t="s">
-        <v>42</v>
+      <c r="C54" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D54" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E54" t="e">
-        <v>#N/A</v>
+      <c r="E54" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B55" t="e">
         <v>#N/A</v>
@@ -1867,13 +1836,13 @@
       <c r="D55" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E55" t="e">
-        <v>#N/A</v>
+      <c r="E55" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B56" t="e">
         <v>#N/A</v>
@@ -1890,7 +1859,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B57" t="e">
         <v>#N/A</v>
@@ -1907,7 +1876,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B58" t="e">
         <v>#N/A</v>
@@ -1924,7 +1893,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B59" t="e">
         <v>#N/A</v>
@@ -1941,16 +1910,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B60" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C60" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D60" t="s">
-        <v>38</v>
+      <c r="C60" t="s">
+        <v>39</v>
+      </c>
+      <c r="D60" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E60" t="e">
         <v>#N/A</v>
@@ -1958,16 +1927,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B61" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C61" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D61" t="s">
-        <v>39</v>
+      <c r="C61" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E61" t="e">
         <v>#N/A</v>
@@ -1975,16 +1944,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B62" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C62" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D62" t="s">
-        <v>40</v>
+      <c r="C62" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E62" t="e">
         <v>#N/A</v>
@@ -1992,16 +1961,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" t="e">
-        <v>#N/A</v>
+        <v>80</v>
+      </c>
+      <c r="B63" t="s">
+        <v>39</v>
       </c>
       <c r="C63" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D63" t="s">
-        <v>41</v>
+      <c r="D63" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E63" t="e">
         <v>#N/A</v>
@@ -2009,16 +1978,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" t="e">
-        <v>#N/A</v>
+        <v>81</v>
+      </c>
+      <c r="B64" t="s">
+        <v>40</v>
       </c>
       <c r="C64" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D64" t="s">
-        <v>42</v>
+      <c r="D64" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E64" t="e">
         <v>#N/A</v>
@@ -2026,10 +1995,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" t="e">
-        <v>#N/A</v>
+        <v>82</v>
+      </c>
+      <c r="B65" t="s">
+        <v>38</v>
       </c>
       <c r="C65" t="e">
         <v>#N/A</v>
@@ -2037,13 +2006,13 @@
       <c r="D65" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E65" t="s">
-        <v>38</v>
+      <c r="E65" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B66" t="e">
         <v>#N/A</v>
@@ -2051,16 +2020,16 @@
       <c r="C66" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D66" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="D66" t="s">
         <v>39</v>
+      </c>
+      <c r="E66" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B67" t="e">
         <v>#N/A</v>
@@ -2068,16 +2037,16 @@
       <c r="C67" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D67" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="D67" t="s">
         <v>40</v>
+      </c>
+      <c r="E67" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B68" t="e">
         <v>#N/A</v>
@@ -2085,16 +2054,16 @@
       <c r="C68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D68" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E68" t="s">
-        <v>41</v>
+      <c r="D68" t="s">
+        <v>38</v>
+      </c>
+      <c r="E68" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="B69" t="e">
         <v>#N/A</v>
@@ -2106,12 +2075,12 @@
         <v>#N/A</v>
       </c>
       <c r="E69" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="B70" t="e">
         <v>#N/A</v>
@@ -2122,13 +2091,13 @@
       <c r="D70" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E70" t="e">
-        <v>#N/A</v>
+      <c r="E70" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="B71" t="e">
         <v>#N/A</v>
@@ -2145,7 +2114,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="B72" t="e">
         <v>#N/A</v>
@@ -2162,7 +2131,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="B73" t="e">
         <v>#N/A</v>
@@ -2179,13 +2148,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="B74" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C74" t="s">
-        <v>43</v>
+      <c r="C74" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D74" t="e">
         <v>#N/A</v>
@@ -2196,13 +2165,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B75" t="e">
         <v>#N/A</v>
       </c>
       <c r="C75" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D75" t="e">
         <v>#N/A</v>
@@ -2213,13 +2182,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="B76" t="e">
         <v>#N/A</v>
       </c>
       <c r="C76" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D76" t="e">
         <v>#N/A</v>
@@ -2230,13 +2199,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="B77" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C77" t="s">
-        <v>46</v>
+      <c r="C77" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D77" t="e">
         <v>#N/A</v>
@@ -2247,13 +2216,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C78" t="s">
-        <v>42</v>
+        <v>104</v>
+      </c>
+      <c r="B78" t="s">
+        <v>41</v>
+      </c>
+      <c r="C78" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D78" t="e">
         <v>#N/A</v>
@@ -2264,10 +2233,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="B79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C79" t="e">
         <v>#N/A</v>
@@ -2281,10 +2250,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>44</v>
+        <v>106</v>
+      </c>
+      <c r="B80" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C80" t="e">
         <v>#N/A</v>
@@ -2298,16 +2267,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>45</v>
+        <v>109</v>
+      </c>
+      <c r="B81" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C81" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D81" t="e">
-        <v>#N/A</v>
+      <c r="D81" t="s">
+        <v>41</v>
       </c>
       <c r="E81" t="e">
         <v>#N/A</v>
@@ -2315,16 +2284,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82" t="s">
-        <v>46</v>
+        <v>110</v>
+      </c>
+      <c r="B82" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C82" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D82" t="e">
-        <v>#N/A</v>
+      <c r="D82" t="s">
+        <v>42</v>
       </c>
       <c r="E82" t="e">
         <v>#N/A</v>
@@ -2332,10 +2301,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83" t="s">
-        <v>42</v>
+        <v>111</v>
+      </c>
+      <c r="B83" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C83" t="e">
         <v>#N/A</v>
@@ -2349,7 +2318,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="B84" t="e">
         <v>#N/A</v>
@@ -2357,16 +2326,16 @@
       <c r="C84" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D84" t="s">
-        <v>43</v>
-      </c>
-      <c r="E84" t="e">
-        <v>#N/A</v>
+      <c r="D84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E84" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="B85" t="e">
         <v>#N/A</v>
@@ -2374,16 +2343,16 @@
       <c r="C85" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D85" t="s">
-        <v>44</v>
-      </c>
-      <c r="E85" t="e">
-        <v>#N/A</v>
+      <c r="D85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E85" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="B86" t="e">
         <v>#N/A</v>
@@ -2391,8 +2360,8 @@
       <c r="C86" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D86" t="s">
-        <v>45</v>
+      <c r="D86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E86" t="e">
         <v>#N/A</v>
@@ -2400,7 +2369,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="B87" t="e">
         <v>#N/A</v>
@@ -2408,8 +2377,8 @@
       <c r="C87" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D87" t="s">
-        <v>46</v>
+      <c r="D87" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E87" t="e">
         <v>#N/A</v>
@@ -2417,7 +2386,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="B88" t="e">
         <v>#N/A</v>
@@ -2425,8 +2394,8 @@
       <c r="C88" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D88" t="s">
-        <v>42</v>
+      <c r="D88" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E88" t="e">
         <v>#N/A</v>
@@ -2434,7 +2403,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="B89" t="e">
         <v>#N/A</v>
@@ -2445,13 +2414,13 @@
       <c r="D89" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E89" t="s">
-        <v>43</v>
+      <c r="E89" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="B90" t="e">
         <v>#N/A</v>
@@ -2462,47 +2431,47 @@
       <c r="D90" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E90" t="s">
-        <v>44</v>
+      <c r="E90" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="B91" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C91" t="e">
-        <v>#N/A</v>
+      <c r="C91" t="s">
+        <v>43</v>
       </c>
       <c r="D91" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E91" t="s">
-        <v>45</v>
+      <c r="E91" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="B92" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C92" t="e">
-        <v>#N/A</v>
+      <c r="C92" t="s">
+        <v>44</v>
       </c>
       <c r="D92" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E92" t="s">
-        <v>46</v>
+      <c r="E92" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="B93" t="e">
         <v>#N/A</v>
@@ -2513,16 +2482,16 @@
       <c r="D93" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E93" t="s">
-        <v>42</v>
+      <c r="E93" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94" t="e">
-        <v>#N/A</v>
+        <v>128</v>
+      </c>
+      <c r="B94" t="s">
+        <v>43</v>
       </c>
       <c r="C94" t="e">
         <v>#N/A</v>
@@ -2536,10 +2505,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95" t="e">
-        <v>#N/A</v>
+        <v>129</v>
+      </c>
+      <c r="B95" t="s">
+        <v>44</v>
       </c>
       <c r="C95" t="e">
         <v>#N/A</v>
@@ -2553,7 +2522,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="B96" t="e">
         <v>#N/A</v>
@@ -2570,7 +2539,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="B97" t="e">
         <v>#N/A</v>
@@ -2578,8 +2547,8 @@
       <c r="C97" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D97" t="e">
-        <v>#N/A</v>
+      <c r="D97" t="s">
+        <v>43</v>
       </c>
       <c r="E97" t="e">
         <v>#N/A</v>
@@ -2587,16 +2556,16 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="B98" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C98" t="s">
-        <v>47</v>
-      </c>
-      <c r="D98" t="e">
-        <v>#N/A</v>
+      <c r="C98" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D98" t="s">
+        <v>44</v>
       </c>
       <c r="E98" t="e">
         <v>#N/A</v>
@@ -2604,13 +2573,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="B99" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C99" t="s">
-        <v>48</v>
+      <c r="C99" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D99" t="e">
         <v>#N/A</v>
@@ -2621,41 +2590,41 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="B100" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C100" t="s">
-        <v>49</v>
+      <c r="C100" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D100" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E100" t="e">
-        <v>#N/A</v>
+      <c r="E100" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="B101" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C101" t="s">
-        <v>50</v>
+      <c r="C101" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D101" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E101" t="e">
-        <v>#N/A</v>
+      <c r="E101" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="B102" t="e">
         <v>#N/A</v>
@@ -2672,10 +2641,10 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>102</v>
-      </c>
-      <c r="B103" t="s">
-        <v>47</v>
+        <v>141</v>
+      </c>
+      <c r="B103" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C103" t="e">
         <v>#N/A</v>
@@ -2689,10 +2658,10 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>103</v>
-      </c>
-      <c r="B104" t="s">
-        <v>48</v>
+        <v>142</v>
+      </c>
+      <c r="B104" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C104" t="e">
         <v>#N/A</v>
@@ -2706,10 +2675,10 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>104</v>
-      </c>
-      <c r="B105" t="s">
-        <v>49</v>
+        <v>143</v>
+      </c>
+      <c r="B105" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C105" t="e">
         <v>#N/A</v>
@@ -2723,10 +2692,10 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>105</v>
-      </c>
-      <c r="B106" t="s">
-        <v>50</v>
+        <v>144</v>
+      </c>
+      <c r="B106" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C106" t="e">
         <v>#N/A</v>
@@ -2740,13 +2709,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="B107" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C107" t="e">
-        <v>#N/A</v>
+      <c r="C107" t="s">
+        <v>45</v>
       </c>
       <c r="D107" t="e">
         <v>#N/A</v>
@@ -2757,16 +2726,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="B108" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C108" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D108" t="s">
-        <v>47</v>
+      <c r="C108" t="s">
+        <v>46</v>
+      </c>
+      <c r="D108" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E108" t="e">
         <v>#N/A</v>
@@ -2774,16 +2743,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="B109" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C109" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D109" t="s">
-        <v>48</v>
+      <c r="C109" t="s">
+        <v>47</v>
+      </c>
+      <c r="D109" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E109" t="e">
         <v>#N/A</v>
@@ -2791,7 +2760,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="B110" t="e">
         <v>#N/A</v>
@@ -2799,8 +2768,8 @@
       <c r="C110" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D110" t="s">
-        <v>49</v>
+      <c r="D110" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E110" t="e">
         <v>#N/A</v>
@@ -2808,16 +2777,16 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>110</v>
-      </c>
-      <c r="B111" t="e">
-        <v>#N/A</v>
+        <v>150</v>
+      </c>
+      <c r="B111" t="s">
+        <v>45</v>
       </c>
       <c r="C111" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D111" t="s">
-        <v>50</v>
+      <c r="D111" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E111" t="e">
         <v>#N/A</v>
@@ -2825,10 +2794,10 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>111</v>
-      </c>
-      <c r="B112" t="e">
-        <v>#N/A</v>
+        <v>152</v>
+      </c>
+      <c r="B112" t="s">
+        <v>46</v>
       </c>
       <c r="C112" t="e">
         <v>#N/A</v>
@@ -2842,10 +2811,10 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>112</v>
-      </c>
-      <c r="B113" t="e">
-        <v>#N/A</v>
+        <v>153</v>
+      </c>
+      <c r="B113" t="s">
+        <v>47</v>
       </c>
       <c r="C113" t="e">
         <v>#N/A</v>
@@ -2853,13 +2822,13 @@
       <c r="D113" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E113" t="s">
-        <v>47</v>
+      <c r="E113" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="B114" t="e">
         <v>#N/A</v>
@@ -2870,13 +2839,13 @@
       <c r="D114" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E114" t="s">
-        <v>48</v>
+      <c r="E114" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="B115" t="e">
         <v>#N/A</v>
@@ -2884,16 +2853,16 @@
       <c r="C115" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D115" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E115" t="s">
-        <v>49</v>
+      <c r="D115" t="s">
+        <v>45</v>
+      </c>
+      <c r="E115" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="B116" t="e">
         <v>#N/A</v>
@@ -2901,16 +2870,16 @@
       <c r="C116" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D116" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E116" t="s">
-        <v>50</v>
+      <c r="D116" t="s">
+        <v>46</v>
+      </c>
+      <c r="E116" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="B117" t="e">
         <v>#N/A</v>
@@ -2918,8 +2887,8 @@
       <c r="C117" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D117" t="e">
-        <v>#N/A</v>
+      <c r="D117" t="s">
+        <v>47</v>
       </c>
       <c r="E117" t="e">
         <v>#N/A</v>
@@ -2927,7 +2896,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="B118" t="e">
         <v>#N/A</v>
@@ -2944,7 +2913,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="B119" t="e">
         <v>#N/A</v>
@@ -2955,13 +2924,13 @@
       <c r="D119" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E119" t="e">
-        <v>#N/A</v>
+      <c r="E119" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="B120" t="e">
         <v>#N/A</v>
@@ -2972,13 +2941,13 @@
       <c r="D120" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E120" t="e">
-        <v>#N/A</v>
+      <c r="E120" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="B121" t="e">
         <v>#N/A</v>
@@ -2989,19 +2958,19 @@
       <c r="D121" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E121" t="e">
-        <v>#N/A</v>
+      <c r="E121" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="B122" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C122" t="s">
-        <v>51</v>
+      <c r="C122" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D122" t="e">
         <v>#N/A</v>
@@ -3012,13 +2981,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="B123" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C123" t="s">
-        <v>52</v>
+      <c r="C123" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D123" t="e">
         <v>#N/A</v>
@@ -3029,13 +2998,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="B124" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C124" t="s">
-        <v>53</v>
+      <c r="C124" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D124" t="e">
         <v>#N/A</v>
@@ -3046,13 +3015,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="B125" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C125" t="s">
-        <v>54</v>
+      <c r="C125" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D125" t="e">
         <v>#N/A</v>
@@ -3063,7 +3032,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="B126" t="e">
         <v>#N/A</v>
@@ -3080,13 +3049,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>126</v>
-      </c>
-      <c r="B127" t="s">
-        <v>51</v>
-      </c>
-      <c r="C127" t="e">
-        <v>#N/A</v>
+        <v>169</v>
+      </c>
+      <c r="B127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C127" t="s">
+        <v>48</v>
       </c>
       <c r="D127" t="e">
         <v>#N/A</v>
@@ -3097,13 +3066,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>127</v>
-      </c>
-      <c r="B128" t="s">
-        <v>52</v>
-      </c>
-      <c r="C128" t="e">
-        <v>#N/A</v>
+        <v>171</v>
+      </c>
+      <c r="B128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C128" t="s">
+        <v>49</v>
       </c>
       <c r="D128" t="e">
         <v>#N/A</v>
@@ -3114,13 +3083,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>128</v>
-      </c>
-      <c r="B129" t="s">
-        <v>53</v>
-      </c>
-      <c r="C129" t="e">
-        <v>#N/A</v>
+        <v>172</v>
+      </c>
+      <c r="B129" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C129" t="s">
+        <v>50</v>
       </c>
       <c r="D129" t="e">
         <v>#N/A</v>
@@ -3131,10 +3100,10 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>129</v>
-      </c>
-      <c r="B130" t="s">
-        <v>54</v>
+        <v>173</v>
+      </c>
+      <c r="B130" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C130" t="e">
         <v>#N/A</v>
@@ -3148,10 +3117,10 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>130</v>
-      </c>
-      <c r="B131" t="e">
-        <v>#N/A</v>
+        <v>174</v>
+      </c>
+      <c r="B131" t="s">
+        <v>48</v>
       </c>
       <c r="C131" t="e">
         <v>#N/A</v>
@@ -3165,16 +3134,16 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>131</v>
-      </c>
-      <c r="B132" t="e">
-        <v>#N/A</v>
+        <v>176</v>
+      </c>
+      <c r="B132" t="s">
+        <v>49</v>
       </c>
       <c r="C132" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D132" t="s">
-        <v>51</v>
+      <c r="D132" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E132" t="e">
         <v>#N/A</v>
@@ -3182,16 +3151,16 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>132</v>
-      </c>
-      <c r="B133" t="e">
-        <v>#N/A</v>
+        <v>177</v>
+      </c>
+      <c r="B133" t="s">
+        <v>50</v>
       </c>
       <c r="C133" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D133" t="s">
-        <v>52</v>
+      <c r="D133" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E133" t="e">
         <v>#N/A</v>
@@ -3199,7 +3168,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="B134" t="e">
         <v>#N/A</v>
@@ -3207,8 +3176,8 @@
       <c r="C134" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D134" t="s">
-        <v>53</v>
+      <c r="D134" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E134" t="e">
         <v>#N/A</v>
@@ -3216,7 +3185,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="B135" t="e">
         <v>#N/A</v>
@@ -3225,7 +3194,7 @@
         <v>#N/A</v>
       </c>
       <c r="D135" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E135" t="e">
         <v>#N/A</v>
@@ -3233,7 +3202,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="B136" t="e">
         <v>#N/A</v>
@@ -3241,8 +3210,8 @@
       <c r="C136" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D136" t="e">
-        <v>#N/A</v>
+      <c r="D136" t="s">
+        <v>49</v>
       </c>
       <c r="E136" t="e">
         <v>#N/A</v>
@@ -3250,7 +3219,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="B137" t="e">
         <v>#N/A</v>
@@ -3258,16 +3227,16 @@
       <c r="C137" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D137" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E137" t="s">
-        <v>51</v>
+      <c r="D137" t="s">
+        <v>50</v>
+      </c>
+      <c r="E137" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="B138" t="e">
         <v>#N/A</v>
@@ -3278,13 +3247,13 @@
       <c r="D138" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E138" t="s">
-        <v>52</v>
+      <c r="E138" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="B139" t="e">
         <v>#N/A</v>
@@ -3296,12 +3265,12 @@
         <v>#N/A</v>
       </c>
       <c r="E139" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="B140" t="e">
         <v>#N/A</v>
@@ -3313,12 +3282,12 @@
         <v>#N/A</v>
       </c>
       <c r="E140" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="B141" t="e">
         <v>#N/A</v>
@@ -3329,13 +3298,13 @@
       <c r="D141" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E141" t="e">
-        <v>#N/A</v>
+      <c r="E141" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="B142" t="e">
         <v>#N/A</v>
@@ -3352,7 +3321,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="B143" t="e">
         <v>#N/A</v>
@@ -3369,7 +3338,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="B144" t="e">
         <v>#N/A</v>
@@ -3386,7 +3355,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="B145" t="e">
         <v>#N/A</v>
@@ -3403,13 +3372,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="B146" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C146" t="s">
-        <v>55</v>
+      <c r="C146" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D146" t="e">
         <v>#N/A</v>
@@ -3420,13 +3389,13 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="B147" t="e">
         <v>#N/A</v>
       </c>
       <c r="C147" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D147" t="e">
         <v>#N/A</v>
@@ -3437,13 +3406,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>147</v>
+        <v>194</v>
       </c>
       <c r="B148" t="e">
         <v>#N/A</v>
       </c>
       <c r="C148" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D148" t="e">
         <v>#N/A</v>
@@ -3454,13 +3423,13 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>148</v>
+        <v>195</v>
       </c>
       <c r="B149" t="e">
         <v>#N/A</v>
       </c>
       <c r="C149" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D149" t="e">
         <v>#N/A</v>
@@ -3471,13 +3440,13 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="B150" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C150" t="e">
-        <v>#N/A</v>
+      <c r="C150" t="s">
+        <v>54</v>
       </c>
       <c r="D150" t="e">
         <v>#N/A</v>
@@ -3488,10 +3457,10 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>150</v>
-      </c>
-      <c r="B151" t="s">
-        <v>55</v>
+        <v>197</v>
+      </c>
+      <c r="B151" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C151" t="e">
         <v>#N/A</v>
@@ -3505,10 +3474,10 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="B152" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C152" t="e">
         <v>#N/A</v>
@@ -3522,10 +3491,10 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>152</v>
+        <v>199</v>
       </c>
       <c r="B153" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C153" t="e">
         <v>#N/A</v>
@@ -3539,10 +3508,10 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="B154" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C154" t="e">
         <v>#N/A</v>
@@ -3556,10 +3525,10 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>154</v>
-      </c>
-      <c r="B155" t="e">
-        <v>#N/A</v>
+        <v>201</v>
+      </c>
+      <c r="B155" t="s">
+        <v>54</v>
       </c>
       <c r="C155" t="e">
         <v>#N/A</v>
@@ -3573,7 +3542,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>155</v>
+        <v>202</v>
       </c>
       <c r="B156" t="e">
         <v>#N/A</v>
@@ -3581,8 +3550,8 @@
       <c r="C156" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D156" t="s">
-        <v>55</v>
+      <c r="D156" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E156" t="e">
         <v>#N/A</v>
@@ -3590,7 +3559,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="B157" t="e">
         <v>#N/A</v>
@@ -3599,7 +3568,7 @@
         <v>#N/A</v>
       </c>
       <c r="D157" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E157" t="e">
         <v>#N/A</v>
@@ -3607,7 +3576,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>157</v>
+        <v>204</v>
       </c>
       <c r="B158" t="e">
         <v>#N/A</v>
@@ -3616,7 +3585,7 @@
         <v>#N/A</v>
       </c>
       <c r="D158" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E158" t="e">
         <v>#N/A</v>
@@ -3624,7 +3593,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="B159" t="e">
         <v>#N/A</v>
@@ -3633,7 +3602,7 @@
         <v>#N/A</v>
       </c>
       <c r="D159" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E159" t="e">
         <v>#N/A</v>
@@ -3641,7 +3610,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="B160" t="e">
         <v>#N/A</v>
@@ -3649,8 +3618,8 @@
       <c r="C160" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D160" t="e">
-        <v>#N/A</v>
+      <c r="D160" t="s">
+        <v>54</v>
       </c>
       <c r="E160" t="e">
         <v>#N/A</v>
@@ -3658,7 +3627,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="B161" t="e">
         <v>#N/A</v>
@@ -3669,13 +3638,13 @@
       <c r="D161" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E161" t="s">
-        <v>55</v>
+      <c r="E161" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>161</v>
+        <v>208</v>
       </c>
       <c r="B162" t="e">
         <v>#N/A</v>
@@ -3687,12 +3656,12 @@
         <v>#N/A</v>
       </c>
       <c r="E162" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="B163" t="e">
         <v>#N/A</v>
@@ -3704,12 +3673,12 @@
         <v>#N/A</v>
       </c>
       <c r="E163" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>163</v>
+        <v>210</v>
       </c>
       <c r="B164" t="e">
         <v>#N/A</v>
@@ -3721,12 +3690,12 @@
         <v>#N/A</v>
       </c>
       <c r="E164" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="B165" t="e">
         <v>#N/A</v>
@@ -3737,13 +3706,13 @@
       <c r="D165" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E165" t="e">
-        <v>#N/A</v>
+      <c r="E165" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>165</v>
+        <v>212</v>
       </c>
       <c r="B166" t="e">
         <v>#N/A</v>
@@ -3760,7 +3729,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c r="B167" t="e">
         <v>#N/A</v>
@@ -3777,7 +3746,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="B168" t="e">
         <v>#N/A</v>
@@ -3794,7 +3763,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="B169" t="e">
         <v>#N/A</v>
@@ -3811,13 +3780,13 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>169</v>
+        <v>216</v>
       </c>
       <c r="B170" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C170" t="s">
-        <v>59</v>
+      <c r="C170" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D170" t="e">
         <v>#N/A</v>
@@ -3828,13 +3797,13 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>170</v>
+        <v>217</v>
       </c>
       <c r="B171" t="e">
         <v>#N/A</v>
       </c>
       <c r="C171" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D171" t="e">
         <v>#N/A</v>
@@ -3845,13 +3814,13 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>171</v>
+        <v>218</v>
       </c>
       <c r="B172" t="e">
         <v>#N/A</v>
       </c>
       <c r="C172" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D172" t="e">
         <v>#N/A</v>
@@ -3862,13 +3831,13 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>172</v>
+        <v>219</v>
       </c>
       <c r="B173" t="e">
         <v>#N/A</v>
       </c>
       <c r="C173" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D173" t="e">
         <v>#N/A</v>
@@ -3879,13 +3848,13 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="B174" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C174" t="e">
-        <v>#N/A</v>
+      <c r="C174" t="s">
+        <v>58</v>
       </c>
       <c r="D174" t="e">
         <v>#N/A</v>
@@ -3896,10 +3865,10 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>174</v>
-      </c>
-      <c r="B175" t="s">
-        <v>59</v>
+        <v>221</v>
+      </c>
+      <c r="B175" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C175" t="e">
         <v>#N/A</v>
@@ -3913,10 +3882,10 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c r="B176" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C176" t="e">
         <v>#N/A</v>
@@ -3930,10 +3899,10 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>176</v>
+        <v>223</v>
       </c>
       <c r="B177" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C177" t="e">
         <v>#N/A</v>
@@ -3947,10 +3916,10 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>177</v>
+        <v>224</v>
       </c>
       <c r="B178" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C178" t="e">
         <v>#N/A</v>
@@ -3964,10 +3933,10 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>178</v>
-      </c>
-      <c r="B179" t="e">
-        <v>#N/A</v>
+        <v>225</v>
+      </c>
+      <c r="B179" t="s">
+        <v>58</v>
       </c>
       <c r="C179" t="e">
         <v>#N/A</v>
@@ -3981,7 +3950,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>179</v>
+        <v>226</v>
       </c>
       <c r="B180" t="e">
         <v>#N/A</v>
@@ -3989,8 +3958,8 @@
       <c r="C180" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D180" t="s">
-        <v>59</v>
+      <c r="D180" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E180" t="e">
         <v>#N/A</v>
@@ -3998,7 +3967,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="B181" t="e">
         <v>#N/A</v>
@@ -4007,7 +3976,7 @@
         <v>#N/A</v>
       </c>
       <c r="D181" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E181" t="e">
         <v>#N/A</v>
@@ -4015,7 +3984,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>181</v>
+        <v>228</v>
       </c>
       <c r="B182" t="e">
         <v>#N/A</v>
@@ -4024,7 +3993,7 @@
         <v>#N/A</v>
       </c>
       <c r="D182" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E182" t="e">
         <v>#N/A</v>
@@ -4032,7 +4001,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="B183" t="e">
         <v>#N/A</v>
@@ -4041,7 +4010,7 @@
         <v>#N/A</v>
       </c>
       <c r="D183" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E183" t="e">
         <v>#N/A</v>
@@ -4049,7 +4018,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="B184" t="e">
         <v>#N/A</v>
@@ -4057,8 +4026,8 @@
       <c r="C184" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D184" t="e">
-        <v>#N/A</v>
+      <c r="D184" t="s">
+        <v>58</v>
       </c>
       <c r="E184" t="e">
         <v>#N/A</v>
@@ -4066,7 +4035,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>184</v>
+        <v>231</v>
       </c>
       <c r="B185" t="e">
         <v>#N/A</v>
@@ -4077,13 +4046,13 @@
       <c r="D185" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E185" t="s">
-        <v>59</v>
+      <c r="E185" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>185</v>
+        <v>232</v>
       </c>
       <c r="B186" t="e">
         <v>#N/A</v>
@@ -4095,12 +4064,12 @@
         <v>#N/A</v>
       </c>
       <c r="E186" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>186</v>
+        <v>233</v>
       </c>
       <c r="B187" t="e">
         <v>#N/A</v>
@@ -4112,12 +4081,12 @@
         <v>#N/A</v>
       </c>
       <c r="E187" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>187</v>
+        <v>234</v>
       </c>
       <c r="B188" t="e">
         <v>#N/A</v>
@@ -4129,12 +4098,12 @@
         <v>#N/A</v>
       </c>
       <c r="E188" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="B189" t="e">
         <v>#N/A</v>
@@ -4145,13 +4114,13 @@
       <c r="D189" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E189" t="e">
-        <v>#N/A</v>
+      <c r="E189" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="B190" t="e">
         <v>#N/A</v>
@@ -4168,7 +4137,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="B191" t="e">
         <v>#N/A</v>
@@ -4185,7 +4154,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>191</v>
+        <v>238</v>
       </c>
       <c r="B192" t="e">
         <v>#N/A</v>
@@ -4202,7 +4171,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>192</v>
+        <v>239</v>
       </c>
       <c r="B193" t="e">
         <v>#N/A</v>
@@ -4219,13 +4188,13 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>193</v>
+        <v>240</v>
       </c>
       <c r="B194" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C194" t="s">
-        <v>63</v>
+      <c r="C194" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D194" t="e">
         <v>#N/A</v>
@@ -4236,13 +4205,13 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="B195" t="e">
         <v>#N/A</v>
       </c>
       <c r="C195" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D195" t="e">
         <v>#N/A</v>
@@ -4253,13 +4222,13 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="B196" t="e">
         <v>#N/A</v>
       </c>
       <c r="C196" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D196" t="e">
         <v>#N/A</v>
@@ -4270,13 +4239,13 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>196</v>
+        <v>243</v>
       </c>
       <c r="B197" t="e">
         <v>#N/A</v>
       </c>
       <c r="C197" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D197" t="e">
         <v>#N/A</v>
@@ -4287,13 +4256,13 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>197</v>
+        <v>244</v>
       </c>
       <c r="B198" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C198" t="e">
-        <v>#N/A</v>
+      <c r="C198" t="s">
+        <v>62</v>
       </c>
       <c r="D198" t="e">
         <v>#N/A</v>
@@ -4304,10 +4273,10 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>198</v>
-      </c>
-      <c r="B199" t="s">
-        <v>63</v>
+        <v>245</v>
+      </c>
+      <c r="B199" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C199" t="e">
         <v>#N/A</v>
@@ -4321,10 +4290,10 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="B200" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C200" t="e">
         <v>#N/A</v>
@@ -4338,10 +4307,10 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>200</v>
+        <v>247</v>
       </c>
       <c r="B201" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C201" t="e">
         <v>#N/A</v>
@@ -4355,10 +4324,10 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>201</v>
+        <v>248</v>
       </c>
       <c r="B202" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C202" t="e">
         <v>#N/A</v>
@@ -4372,10 +4341,10 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>202</v>
-      </c>
-      <c r="B203" t="e">
-        <v>#N/A</v>
+        <v>249</v>
+      </c>
+      <c r="B203" t="s">
+        <v>62</v>
       </c>
       <c r="C203" t="e">
         <v>#N/A</v>
@@ -4389,7 +4358,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="B204" t="e">
         <v>#N/A</v>
@@ -4397,8 +4366,8 @@
       <c r="C204" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D204" t="s">
-        <v>63</v>
+      <c r="D204" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E204" t="e">
         <v>#N/A</v>
@@ -4406,7 +4375,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>204</v>
+        <v>251</v>
       </c>
       <c r="B205" t="e">
         <v>#N/A</v>
@@ -4415,7 +4384,7 @@
         <v>#N/A</v>
       </c>
       <c r="D205" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E205" t="e">
         <v>#N/A</v>
@@ -4423,7 +4392,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>205</v>
+        <v>252</v>
       </c>
       <c r="B206" t="e">
         <v>#N/A</v>
@@ -4432,7 +4401,7 @@
         <v>#N/A</v>
       </c>
       <c r="D206" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E206" t="e">
         <v>#N/A</v>
@@ -4440,7 +4409,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>206</v>
+        <v>253</v>
       </c>
       <c r="B207" t="e">
         <v>#N/A</v>
@@ -4449,7 +4418,7 @@
         <v>#N/A</v>
       </c>
       <c r="D207" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E207" t="e">
         <v>#N/A</v>
@@ -4457,7 +4426,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>207</v>
+        <v>254</v>
       </c>
       <c r="B208" t="e">
         <v>#N/A</v>
@@ -4465,8 +4434,8 @@
       <c r="C208" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D208" t="e">
-        <v>#N/A</v>
+      <c r="D208" t="s">
+        <v>62</v>
       </c>
       <c r="E208" t="e">
         <v>#N/A</v>
@@ -4474,7 +4443,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>208</v>
+        <v>255</v>
       </c>
       <c r="B209" t="e">
         <v>#N/A</v>
@@ -4485,13 +4454,13 @@
       <c r="D209" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E209" t="s">
-        <v>63</v>
+      <c r="E209" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>209</v>
+        <v>256</v>
       </c>
       <c r="B210" t="e">
         <v>#N/A</v>
@@ -4503,12 +4472,12 @@
         <v>#N/A</v>
       </c>
       <c r="E210" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>210</v>
+        <v>257</v>
       </c>
       <c r="B211" t="e">
         <v>#N/A</v>
@@ -4520,12 +4489,12 @@
         <v>#N/A</v>
       </c>
       <c r="E211" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>211</v>
+        <v>258</v>
       </c>
       <c r="B212" t="e">
         <v>#N/A</v>
@@ -4537,12 +4506,12 @@
         <v>#N/A</v>
       </c>
       <c r="E212" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="B213" t="e">
         <v>#N/A</v>
@@ -4553,13 +4522,13 @@
       <c r="D213" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E213" t="e">
-        <v>#N/A</v>
+      <c r="E213" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>213</v>
+        <v>260</v>
       </c>
       <c r="B214" t="e">
         <v>#N/A</v>
@@ -4576,7 +4545,7 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>214</v>
+        <v>261</v>
       </c>
       <c r="B215" t="e">
         <v>#N/A</v>
@@ -4593,7 +4562,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>215</v>
+        <v>262</v>
       </c>
       <c r="B216" t="e">
         <v>#N/A</v>
@@ -4610,7 +4579,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>216</v>
+        <v>263</v>
       </c>
       <c r="B217" t="e">
         <v>#N/A</v>
@@ -4627,13 +4596,13 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>217</v>
+        <v>264</v>
       </c>
       <c r="B218" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C218" t="s">
-        <v>67</v>
+      <c r="C218" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D218" t="e">
         <v>#N/A</v>
@@ -4644,13 +4613,13 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>218</v>
+        <v>265</v>
       </c>
       <c r="B219" t="e">
         <v>#N/A</v>
       </c>
       <c r="C219" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D219" t="e">
         <v>#N/A</v>
@@ -4661,13 +4630,13 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>219</v>
+        <v>266</v>
       </c>
       <c r="B220" t="e">
         <v>#N/A</v>
       </c>
       <c r="C220" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D220" t="e">
         <v>#N/A</v>
@@ -4678,13 +4647,13 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="B221" t="e">
         <v>#N/A</v>
       </c>
       <c r="C221" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D221" t="e">
         <v>#N/A</v>
@@ -4695,13 +4664,13 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>221</v>
+        <v>268</v>
       </c>
       <c r="B222" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C222" t="e">
-        <v>#N/A</v>
+      <c r="C222" t="s">
+        <v>66</v>
       </c>
       <c r="D222" t="e">
         <v>#N/A</v>
@@ -4712,10 +4681,10 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>222</v>
-      </c>
-      <c r="B223" t="s">
-        <v>67</v>
+        <v>269</v>
+      </c>
+      <c r="B223" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C223" t="e">
         <v>#N/A</v>
@@ -4729,10 +4698,10 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="B224" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C224" t="e">
         <v>#N/A</v>
@@ -4746,10 +4715,10 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="B225" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C225" t="e">
         <v>#N/A</v>
@@ -4763,10 +4732,10 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>225</v>
+        <v>272</v>
       </c>
       <c r="B226" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C226" t="e">
         <v>#N/A</v>
@@ -4780,10 +4749,10 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>226</v>
-      </c>
-      <c r="B227" t="e">
-        <v>#N/A</v>
+        <v>273</v>
+      </c>
+      <c r="B227" t="s">
+        <v>66</v>
       </c>
       <c r="C227" t="e">
         <v>#N/A</v>
@@ -4797,7 +4766,7 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>227</v>
+        <v>274</v>
       </c>
       <c r="B228" t="e">
         <v>#N/A</v>
@@ -4805,8 +4774,8 @@
       <c r="C228" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D228" t="s">
-        <v>67</v>
+      <c r="D228" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E228" t="e">
         <v>#N/A</v>
@@ -4814,7 +4783,7 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>228</v>
+        <v>275</v>
       </c>
       <c r="B229" t="e">
         <v>#N/A</v>
@@ -4823,7 +4792,7 @@
         <v>#N/A</v>
       </c>
       <c r="D229" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E229" t="e">
         <v>#N/A</v>
@@ -4831,7 +4800,7 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="B230" t="e">
         <v>#N/A</v>
@@ -4840,7 +4809,7 @@
         <v>#N/A</v>
       </c>
       <c r="D230" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E230" t="e">
         <v>#N/A</v>
@@ -4848,7 +4817,7 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>230</v>
+        <v>277</v>
       </c>
       <c r="B231" t="e">
         <v>#N/A</v>
@@ -4857,7 +4826,7 @@
         <v>#N/A</v>
       </c>
       <c r="D231" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E231" t="e">
         <v>#N/A</v>
@@ -4865,7 +4834,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>231</v>
+        <v>278</v>
       </c>
       <c r="B232" t="e">
         <v>#N/A</v>
@@ -4873,8 +4842,8 @@
       <c r="C232" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D232" t="e">
-        <v>#N/A</v>
+      <c r="D232" t="s">
+        <v>66</v>
       </c>
       <c r="E232" t="e">
         <v>#N/A</v>
@@ -4882,7 +4851,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>232</v>
+        <v>279</v>
       </c>
       <c r="B233" t="e">
         <v>#N/A</v>
@@ -4893,13 +4862,13 @@
       <c r="D233" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E233" t="s">
-        <v>67</v>
+      <c r="E233" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>233</v>
+        <v>280</v>
       </c>
       <c r="B234" t="e">
         <v>#N/A</v>
@@ -4911,12 +4880,12 @@
         <v>#N/A</v>
       </c>
       <c r="E234" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>234</v>
+        <v>281</v>
       </c>
       <c r="B235" t="e">
         <v>#N/A</v>
@@ -4928,12 +4897,12 @@
         <v>#N/A</v>
       </c>
       <c r="E235" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>235</v>
+        <v>282</v>
       </c>
       <c r="B236" t="e">
         <v>#N/A</v>
@@ -4945,12 +4914,12 @@
         <v>#N/A</v>
       </c>
       <c r="E236" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>236</v>
+        <v>283</v>
       </c>
       <c r="B237" t="e">
         <v>#N/A</v>
@@ -4961,13 +4930,13 @@
       <c r="D237" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E237" t="e">
-        <v>#N/A</v>
+      <c r="E237" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>237</v>
+        <v>284</v>
       </c>
       <c r="B238" t="e">
         <v>#N/A</v>
@@ -4984,7 +4953,7 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>238</v>
+        <v>285</v>
       </c>
       <c r="B239" t="e">
         <v>#N/A</v>
@@ -5001,7 +4970,7 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>239</v>
+        <v>286</v>
       </c>
       <c r="B240" t="e">
         <v>#N/A</v>
@@ -5018,7 +4987,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>240</v>
+        <v>287</v>
       </c>
       <c r="B241" t="e">
         <v>#N/A</v>
@@ -5035,13 +5004,13 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>241</v>
+        <v>288</v>
       </c>
       <c r="B242" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C242" t="s">
-        <v>71</v>
+      <c r="C242" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D242" t="e">
         <v>#N/A</v>
@@ -5052,13 +5021,13 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>242</v>
+        <v>289</v>
       </c>
       <c r="B243" t="e">
         <v>#N/A</v>
       </c>
       <c r="C243" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D243" t="e">
         <v>#N/A</v>
@@ -5069,13 +5038,13 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>243</v>
+        <v>290</v>
       </c>
       <c r="B244" t="e">
         <v>#N/A</v>
       </c>
       <c r="C244" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D244" t="e">
         <v>#N/A</v>
@@ -5086,13 +5055,13 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>244</v>
+        <v>291</v>
       </c>
       <c r="B245" t="e">
         <v>#N/A</v>
       </c>
       <c r="C245" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D245" t="e">
         <v>#N/A</v>
@@ -5103,13 +5072,13 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>245</v>
+        <v>292</v>
       </c>
       <c r="B246" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C246" t="e">
-        <v>#N/A</v>
+      <c r="C246" t="s">
+        <v>70</v>
       </c>
       <c r="D246" t="e">
         <v>#N/A</v>
@@ -5120,10 +5089,10 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>246</v>
-      </c>
-      <c r="B247" t="s">
-        <v>71</v>
+        <v>293</v>
+      </c>
+      <c r="B247" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C247" t="e">
         <v>#N/A</v>
@@ -5137,10 +5106,10 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="B248" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C248" t="e">
         <v>#N/A</v>
@@ -5154,10 +5123,10 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>248</v>
+        <v>295</v>
       </c>
       <c r="B249" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C249" t="e">
         <v>#N/A</v>
@@ -5171,10 +5140,10 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="B250" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C250" t="e">
         <v>#N/A</v>
@@ -5188,10 +5157,10 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>250</v>
-      </c>
-      <c r="B251" t="e">
-        <v>#N/A</v>
+        <v>297</v>
+      </c>
+      <c r="B251" t="s">
+        <v>70</v>
       </c>
       <c r="C251" t="e">
         <v>#N/A</v>
@@ -5205,7 +5174,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>251</v>
+        <v>298</v>
       </c>
       <c r="B252" t="e">
         <v>#N/A</v>
@@ -5213,8 +5182,8 @@
       <c r="C252" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D252" t="s">
-        <v>71</v>
+      <c r="D252" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E252" t="e">
         <v>#N/A</v>
@@ -5222,7 +5191,7 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>252</v>
+        <v>299</v>
       </c>
       <c r="B253" t="e">
         <v>#N/A</v>
@@ -5231,7 +5200,7 @@
         <v>#N/A</v>
       </c>
       <c r="D253" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E253" t="e">
         <v>#N/A</v>
@@ -5239,7 +5208,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="B254" t="e">
         <v>#N/A</v>
@@ -5248,7 +5217,7 @@
         <v>#N/A</v>
       </c>
       <c r="D254" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E254" t="e">
         <v>#N/A</v>
@@ -5256,7 +5225,7 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>254</v>
+        <v>301</v>
       </c>
       <c r="B255" t="e">
         <v>#N/A</v>
@@ -5265,7 +5234,7 @@
         <v>#N/A</v>
       </c>
       <c r="D255" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E255" t="e">
         <v>#N/A</v>
@@ -5273,7 +5242,7 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="B256" t="e">
         <v>#N/A</v>
@@ -5281,8 +5250,8 @@
       <c r="C256" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D256" t="e">
-        <v>#N/A</v>
+      <c r="D256" t="s">
+        <v>70</v>
       </c>
       <c r="E256" t="e">
         <v>#N/A</v>
@@ -5290,7 +5259,7 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="B257" t="e">
         <v>#N/A</v>
@@ -5301,13 +5270,13 @@
       <c r="D257" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E257" t="s">
-        <v>71</v>
+      <c r="E257" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>257</v>
+        <v>304</v>
       </c>
       <c r="B258" t="e">
         <v>#N/A</v>
@@ -5319,12 +5288,12 @@
         <v>#N/A</v>
       </c>
       <c r="E258" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>258</v>
+        <v>305</v>
       </c>
       <c r="B259" t="e">
         <v>#N/A</v>
@@ -5336,12 +5305,12 @@
         <v>#N/A</v>
       </c>
       <c r="E259" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>259</v>
+        <v>306</v>
       </c>
       <c r="B260" t="e">
         <v>#N/A</v>
@@ -5353,12 +5322,12 @@
         <v>#N/A</v>
       </c>
       <c r="E260" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>260</v>
+        <v>307</v>
       </c>
       <c r="B261" t="e">
         <v>#N/A</v>
@@ -5369,13 +5338,13 @@
       <c r="D261" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E261" t="e">
-        <v>#N/A</v>
+      <c r="E261" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>261</v>
+        <v>308</v>
       </c>
       <c r="B262" t="e">
         <v>#N/A</v>
@@ -5392,7 +5361,7 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>262</v>
+        <v>309</v>
       </c>
       <c r="B263" t="e">
         <v>#N/A</v>
@@ -5409,7 +5378,7 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>263</v>
+        <v>310</v>
       </c>
       <c r="B264" t="e">
         <v>#N/A</v>
@@ -5426,7 +5395,7 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>264</v>
+        <v>311</v>
       </c>
       <c r="B265" t="e">
         <v>#N/A</v>
@@ -5443,13 +5412,13 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>265</v>
+        <v>312</v>
       </c>
       <c r="B266" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C266" t="s">
-        <v>75</v>
+      <c r="C266" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D266" t="e">
         <v>#N/A</v>
@@ -5460,13 +5429,13 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>266</v>
+        <v>313</v>
       </c>
       <c r="B267" t="e">
         <v>#N/A</v>
       </c>
       <c r="C267" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D267" t="e">
         <v>#N/A</v>
@@ -5477,13 +5446,13 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>267</v>
+        <v>314</v>
       </c>
       <c r="B268" t="e">
         <v>#N/A</v>
       </c>
       <c r="C268" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D268" t="e">
         <v>#N/A</v>
@@ -5494,13 +5463,13 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>268</v>
+        <v>315</v>
       </c>
       <c r="B269" t="e">
         <v>#N/A</v>
       </c>
       <c r="C269" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D269" t="e">
         <v>#N/A</v>
@@ -5511,13 +5480,13 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>269</v>
+        <v>316</v>
       </c>
       <c r="B270" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C270" t="e">
-        <v>#N/A</v>
+      <c r="C270" t="s">
+        <v>74</v>
       </c>
       <c r="D270" t="e">
         <v>#N/A</v>
@@ -5528,10 +5497,10 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>270</v>
-      </c>
-      <c r="B271" t="s">
-        <v>75</v>
+        <v>317</v>
+      </c>
+      <c r="B271" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C271" t="e">
         <v>#N/A</v>
@@ -5545,10 +5514,10 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>271</v>
+        <v>318</v>
       </c>
       <c r="B272" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C272" t="e">
         <v>#N/A</v>
@@ -5562,10 +5531,10 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>272</v>
+        <v>319</v>
       </c>
       <c r="B273" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C273" t="e">
         <v>#N/A</v>
@@ -5579,10 +5548,10 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>273</v>
+        <v>320</v>
       </c>
       <c r="B274" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C274" t="e">
         <v>#N/A</v>
@@ -5596,10 +5565,10 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>274</v>
-      </c>
-      <c r="B275" t="e">
-        <v>#N/A</v>
+        <v>321</v>
+      </c>
+      <c r="B275" t="s">
+        <v>74</v>
       </c>
       <c r="C275" t="e">
         <v>#N/A</v>
@@ -5613,7 +5582,7 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>275</v>
+        <v>322</v>
       </c>
       <c r="B276" t="e">
         <v>#N/A</v>
@@ -5621,8 +5590,8 @@
       <c r="C276" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D276" t="s">
-        <v>75</v>
+      <c r="D276" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E276" t="e">
         <v>#N/A</v>
@@ -5630,7 +5599,7 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>276</v>
+        <v>323</v>
       </c>
       <c r="B277" t="e">
         <v>#N/A</v>
@@ -5639,7 +5608,7 @@
         <v>#N/A</v>
       </c>
       <c r="D277" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E277" t="e">
         <v>#N/A</v>
@@ -5647,7 +5616,7 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>277</v>
+        <v>324</v>
       </c>
       <c r="B278" t="e">
         <v>#N/A</v>
@@ -5656,7 +5625,7 @@
         <v>#N/A</v>
       </c>
       <c r="D278" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E278" t="e">
         <v>#N/A</v>
@@ -5664,7 +5633,7 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>278</v>
+        <v>325</v>
       </c>
       <c r="B279" t="e">
         <v>#N/A</v>
@@ -5673,7 +5642,7 @@
         <v>#N/A</v>
       </c>
       <c r="D279" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E279" t="e">
         <v>#N/A</v>
@@ -5681,7 +5650,7 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>279</v>
+        <v>326</v>
       </c>
       <c r="B280" t="e">
         <v>#N/A</v>
@@ -5689,8 +5658,8 @@
       <c r="C280" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D280" t="e">
-        <v>#N/A</v>
+      <c r="D280" t="s">
+        <v>74</v>
       </c>
       <c r="E280" t="e">
         <v>#N/A</v>
@@ -5698,7 +5667,7 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>280</v>
+        <v>327</v>
       </c>
       <c r="B281" t="e">
         <v>#N/A</v>
@@ -5709,13 +5678,13 @@
       <c r="D281" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E281" t="s">
-        <v>75</v>
+      <c r="E281" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>281</v>
+        <v>328</v>
       </c>
       <c r="B282" t="e">
         <v>#N/A</v>
@@ -5727,12 +5696,12 @@
         <v>#N/A</v>
       </c>
       <c r="E282" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>282</v>
+        <v>329</v>
       </c>
       <c r="B283" t="e">
         <v>#N/A</v>
@@ -5744,12 +5713,12 @@
         <v>#N/A</v>
       </c>
       <c r="E283" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>283</v>
+        <v>330</v>
       </c>
       <c r="B284" t="e">
         <v>#N/A</v>
@@ -5761,12 +5730,12 @@
         <v>#N/A</v>
       </c>
       <c r="E284" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>284</v>
+        <v>331</v>
       </c>
       <c r="B285" t="e">
         <v>#N/A</v>
@@ -5777,13 +5746,13 @@
       <c r="D285" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E285" t="e">
-        <v>#N/A</v>
+      <c r="E285" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>285</v>
+        <v>332</v>
       </c>
       <c r="B286" t="e">
         <v>#N/A</v>
@@ -5800,7 +5769,7 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>286</v>
+        <v>333</v>
       </c>
       <c r="B287" t="e">
         <v>#N/A</v>
@@ -5817,7 +5786,7 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>287</v>
+        <v>334</v>
       </c>
       <c r="B288" t="e">
         <v>#N/A</v>
@@ -5834,7 +5803,7 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>288</v>
+        <v>335</v>
       </c>
       <c r="B289" t="e">
         <v>#N/A</v>
@@ -5851,13 +5820,13 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>289</v>
+        <v>336</v>
       </c>
       <c r="B290" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C290" t="s">
-        <v>79</v>
+      <c r="C290" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D290" t="e">
         <v>#N/A</v>
@@ -5868,13 +5837,13 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>290</v>
+        <v>337</v>
       </c>
       <c r="B291" t="e">
         <v>#N/A</v>
       </c>
       <c r="C291" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D291" t="e">
         <v>#N/A</v>
@@ -5885,13 +5854,13 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>291</v>
+        <v>338</v>
       </c>
       <c r="B292" t="e">
         <v>#N/A</v>
       </c>
       <c r="C292" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D292" t="e">
         <v>#N/A</v>
@@ -5902,13 +5871,13 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="B293" t="e">
         <v>#N/A</v>
       </c>
       <c r="C293" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D293" t="e">
         <v>#N/A</v>
@@ -5919,13 +5888,13 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="B294" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C294" t="e">
-        <v>#N/A</v>
+      <c r="C294" t="s">
+        <v>78</v>
       </c>
       <c r="D294" t="e">
         <v>#N/A</v>
@@ -5936,10 +5905,10 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>294</v>
-      </c>
-      <c r="B295" t="s">
-        <v>79</v>
+        <v>341</v>
+      </c>
+      <c r="B295" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C295" t="e">
         <v>#N/A</v>
@@ -5953,10 +5922,10 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="B296" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C296" t="e">
         <v>#N/A</v>
@@ -5970,10 +5939,10 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="B297" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C297" t="e">
         <v>#N/A</v>
@@ -5987,10 +5956,10 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="B298" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C298" t="e">
         <v>#N/A</v>
@@ -6004,10 +5973,10 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>298</v>
-      </c>
-      <c r="B299" t="e">
-        <v>#N/A</v>
+        <v>345</v>
+      </c>
+      <c r="B299" t="s">
+        <v>78</v>
       </c>
       <c r="C299" t="e">
         <v>#N/A</v>
@@ -6021,7 +5990,7 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="B300" t="e">
         <v>#N/A</v>
@@ -6029,8 +5998,8 @@
       <c r="C300" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D300" t="s">
-        <v>79</v>
+      <c r="D300" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E300" t="e">
         <v>#N/A</v>
@@ -6038,7 +6007,7 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="B301" t="e">
         <v>#N/A</v>
@@ -6047,7 +6016,7 @@
         <v>#N/A</v>
       </c>
       <c r="D301" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E301" t="e">
         <v>#N/A</v>
@@ -6055,7 +6024,7 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="B302" t="e">
         <v>#N/A</v>
@@ -6064,7 +6033,7 @@
         <v>#N/A</v>
       </c>
       <c r="D302" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E302" t="e">
         <v>#N/A</v>
@@ -6072,7 +6041,7 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="B303" t="e">
         <v>#N/A</v>
@@ -6081,7 +6050,7 @@
         <v>#N/A</v>
       </c>
       <c r="D303" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E303" t="e">
         <v>#N/A</v>
@@ -6089,7 +6058,7 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="B304" t="e">
         <v>#N/A</v>
@@ -6097,8 +6066,8 @@
       <c r="C304" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D304" t="e">
-        <v>#N/A</v>
+      <c r="D304" t="s">
+        <v>78</v>
       </c>
       <c r="E304" t="e">
         <v>#N/A</v>
@@ -6106,7 +6075,7 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="B305" t="e">
         <v>#N/A</v>
@@ -6117,13 +6086,13 @@
       <c r="D305" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E305" t="s">
-        <v>79</v>
+      <c r="E305" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>305</v>
+        <v>352</v>
       </c>
       <c r="B306" t="e">
         <v>#N/A</v>
@@ -6135,12 +6104,12 @@
         <v>#N/A</v>
       </c>
       <c r="E306" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>306</v>
+        <v>353</v>
       </c>
       <c r="B307" t="e">
         <v>#N/A</v>
@@ -6152,12 +6121,12 @@
         <v>#N/A</v>
       </c>
       <c r="E307" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="B308" t="e">
         <v>#N/A</v>
@@ -6169,12 +6138,12 @@
         <v>#N/A</v>
       </c>
       <c r="E308" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="B309" t="e">
         <v>#N/A</v>
@@ -6185,13 +6154,13 @@
       <c r="D309" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E309" t="e">
-        <v>#N/A</v>
+      <c r="E309" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="B310" t="e">
         <v>#N/A</v>
@@ -6208,7 +6177,7 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="B311" t="e">
         <v>#N/A</v>
@@ -6225,7 +6194,7 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="B312" t="e">
         <v>#N/A</v>
@@ -6242,7 +6211,7 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="B313" t="e">
         <v>#N/A</v>
@@ -6259,13 +6228,13 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>313</v>
+        <v>360</v>
       </c>
       <c r="B314" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C314" t="s">
-        <v>83</v>
+      <c r="C314" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D314" t="e">
         <v>#N/A</v>
@@ -6276,13 +6245,13 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>314</v>
+        <v>361</v>
       </c>
       <c r="B315" t="e">
         <v>#N/A</v>
       </c>
       <c r="C315" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D315" t="e">
         <v>#N/A</v>
@@ -6293,13 +6262,13 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="B316" t="e">
         <v>#N/A</v>
       </c>
       <c r="C316" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D316" t="e">
         <v>#N/A</v>
@@ -6310,13 +6279,13 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="B317" t="e">
         <v>#N/A</v>
       </c>
       <c r="C317" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D317" t="e">
         <v>#N/A</v>
@@ -6327,13 +6296,13 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>317</v>
+        <v>364</v>
       </c>
       <c r="B318" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C318" t="e">
-        <v>#N/A</v>
+      <c r="C318" t="s">
+        <v>82</v>
       </c>
       <c r="D318" t="e">
         <v>#N/A</v>
@@ -6344,10 +6313,10 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>318</v>
-      </c>
-      <c r="B319" t="s">
-        <v>83</v>
+        <v>365</v>
+      </c>
+      <c r="B319" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C319" t="e">
         <v>#N/A</v>
@@ -6361,10 +6330,10 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>319</v>
+        <v>366</v>
       </c>
       <c r="B320" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C320" t="e">
         <v>#N/A</v>
@@ -6378,10 +6347,10 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>320</v>
+        <v>367</v>
       </c>
       <c r="B321" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C321" t="e">
         <v>#N/A</v>
@@ -6395,10 +6364,10 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>321</v>
+        <v>368</v>
       </c>
       <c r="B322" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C322" t="e">
         <v>#N/A</v>
@@ -6412,10 +6381,10 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>322</v>
-      </c>
-      <c r="B323" t="e">
-        <v>#N/A</v>
+        <v>369</v>
+      </c>
+      <c r="B323" t="s">
+        <v>82</v>
       </c>
       <c r="C323" t="e">
         <v>#N/A</v>
@@ -6429,7 +6398,7 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>323</v>
+        <v>370</v>
       </c>
       <c r="B324" t="e">
         <v>#N/A</v>
@@ -6437,8 +6406,8 @@
       <c r="C324" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D324" t="s">
-        <v>83</v>
+      <c r="D324" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E324" t="e">
         <v>#N/A</v>
@@ -6446,7 +6415,7 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>324</v>
+        <v>371</v>
       </c>
       <c r="B325" t="e">
         <v>#N/A</v>
@@ -6455,7 +6424,7 @@
         <v>#N/A</v>
       </c>
       <c r="D325" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E325" t="e">
         <v>#N/A</v>
@@ -6463,7 +6432,7 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>325</v>
+        <v>372</v>
       </c>
       <c r="B326" t="e">
         <v>#N/A</v>
@@ -6472,7 +6441,7 @@
         <v>#N/A</v>
       </c>
       <c r="D326" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E326" t="e">
         <v>#N/A</v>
@@ -6480,7 +6449,7 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>326</v>
+        <v>373</v>
       </c>
       <c r="B327" t="e">
         <v>#N/A</v>
@@ -6489,7 +6458,7 @@
         <v>#N/A</v>
       </c>
       <c r="D327" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E327" t="e">
         <v>#N/A</v>
@@ -6497,7 +6466,7 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>327</v>
+        <v>374</v>
       </c>
       <c r="B328" t="e">
         <v>#N/A</v>
@@ -6505,8 +6474,8 @@
       <c r="C328" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D328" t="e">
-        <v>#N/A</v>
+      <c r="D328" t="s">
+        <v>82</v>
       </c>
       <c r="E328" t="e">
         <v>#N/A</v>
@@ -6514,7 +6483,7 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>328</v>
+        <v>375</v>
       </c>
       <c r="B329" t="e">
         <v>#N/A</v>
@@ -6525,13 +6494,13 @@
       <c r="D329" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E329" t="s">
-        <v>83</v>
+      <c r="E329" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>329</v>
+        <v>376</v>
       </c>
       <c r="B330" t="e">
         <v>#N/A</v>
@@ -6543,12 +6512,12 @@
         <v>#N/A</v>
       </c>
       <c r="E330" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>330</v>
+        <v>377</v>
       </c>
       <c r="B331" t="e">
         <v>#N/A</v>
@@ -6560,12 +6529,12 @@
         <v>#N/A</v>
       </c>
       <c r="E331" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>331</v>
+        <v>378</v>
       </c>
       <c r="B332" t="e">
         <v>#N/A</v>
@@ -6577,12 +6546,12 @@
         <v>#N/A</v>
       </c>
       <c r="E332" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>332</v>
+        <v>379</v>
       </c>
       <c r="B333" t="e">
         <v>#N/A</v>
@@ -6593,810 +6562,12 @@
       <c r="D333" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E333" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A334">
-        <v>333</v>
-      </c>
-      <c r="B334" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C334" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D334" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E334" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A335">
-        <v>334</v>
-      </c>
-      <c r="B335" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C335" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D335" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E335" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A336">
-        <v>335</v>
-      </c>
-      <c r="B336" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C336" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D336" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E336" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A337">
-        <v>336</v>
-      </c>
-      <c r="B337" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C337" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D337" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E337" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A338">
-        <v>337</v>
-      </c>
-      <c r="B338" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C338" t="s">
-        <v>87</v>
-      </c>
-      <c r="D338" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E338" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A339">
-        <v>338</v>
-      </c>
-      <c r="B339" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C339" t="s">
-        <v>88</v>
-      </c>
-      <c r="D339" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E339" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A340">
-        <v>339</v>
-      </c>
-      <c r="B340" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C340" t="s">
-        <v>89</v>
-      </c>
-      <c r="D340" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E340" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A341">
-        <v>340</v>
-      </c>
-      <c r="B341" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C341" t="s">
-        <v>90</v>
-      </c>
-      <c r="D341" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E341" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A342">
-        <v>341</v>
-      </c>
-      <c r="B342" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C342" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D342" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E342" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A343">
-        <v>342</v>
-      </c>
-      <c r="B343" t="s">
-        <v>87</v>
-      </c>
-      <c r="C343" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D343" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E343" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A344">
-        <v>343</v>
-      </c>
-      <c r="B344" t="s">
-        <v>88</v>
-      </c>
-      <c r="C344" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D344" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E344" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A345">
-        <v>344</v>
-      </c>
-      <c r="B345" t="s">
-        <v>89</v>
-      </c>
-      <c r="C345" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D345" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E345" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A346">
-        <v>345</v>
-      </c>
-      <c r="B346" t="s">
-        <v>90</v>
-      </c>
-      <c r="C346" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D346" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E346" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A347">
-        <v>346</v>
-      </c>
-      <c r="B347" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C347" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D347" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E347" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A348">
-        <v>347</v>
-      </c>
-      <c r="B348" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C348" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D348" t="s">
-        <v>87</v>
-      </c>
-      <c r="E348" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A349">
-        <v>348</v>
-      </c>
-      <c r="B349" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C349" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D349" t="s">
-        <v>88</v>
-      </c>
-      <c r="E349" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A350">
-        <v>349</v>
-      </c>
-      <c r="B350" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C350" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D350" t="s">
-        <v>89</v>
-      </c>
-      <c r="E350" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A351">
-        <v>350</v>
-      </c>
-      <c r="B351" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C351" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D351" t="s">
-        <v>90</v>
-      </c>
-      <c r="E351" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A352">
-        <v>351</v>
-      </c>
-      <c r="B352" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C352" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D352" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E352" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A353">
-        <v>352</v>
-      </c>
-      <c r="B353" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C353" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D353" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E353" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A354">
-        <v>353</v>
-      </c>
-      <c r="B354" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C354" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D354" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E354" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A355">
-        <v>354</v>
-      </c>
-      <c r="B355" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C355" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D355" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E355" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A356">
-        <v>355</v>
-      </c>
-      <c r="B356" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C356" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D356" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E356" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A357">
-        <v>356</v>
-      </c>
-      <c r="B357" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C357" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D357" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E357" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A358">
-        <v>357</v>
-      </c>
-      <c r="B358" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C358" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D358" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E358" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A359">
-        <v>358</v>
-      </c>
-      <c r="B359" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C359" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D359" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E359" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A360">
-        <v>359</v>
-      </c>
-      <c r="B360" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C360" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D360" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E360" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A361">
-        <v>360</v>
-      </c>
-      <c r="B361" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C361" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D361" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E361" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A362">
-        <v>361</v>
-      </c>
-      <c r="B362" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C362" t="s">
-        <v>91</v>
-      </c>
-      <c r="D362" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E362" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A363">
-        <v>362</v>
-      </c>
-      <c r="B363" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C363" t="s">
-        <v>92</v>
-      </c>
-      <c r="D363" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E363" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A364">
-        <v>363</v>
-      </c>
-      <c r="B364" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C364" t="s">
-        <v>93</v>
-      </c>
-      <c r="D364" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E364" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A365">
-        <v>364</v>
-      </c>
-      <c r="B365" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C365" t="s">
-        <v>94</v>
-      </c>
-      <c r="D365" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E365" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A366">
-        <v>365</v>
-      </c>
-      <c r="B366" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C366" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D366" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E366" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A367">
-        <v>366</v>
-      </c>
-      <c r="B367" t="s">
-        <v>91</v>
-      </c>
-      <c r="C367" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D367" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E367" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A368">
-        <v>367</v>
-      </c>
-      <c r="B368" t="s">
-        <v>92</v>
-      </c>
-      <c r="C368" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D368" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E368" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A369">
-        <v>368</v>
-      </c>
-      <c r="B369" t="s">
-        <v>93</v>
-      </c>
-      <c r="C369" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D369" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E369" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A370">
-        <v>369</v>
-      </c>
-      <c r="B370" t="s">
-        <v>94</v>
-      </c>
-      <c r="C370" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D370" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E370" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A371">
-        <v>370</v>
-      </c>
-      <c r="B371" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C371" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D371" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E371" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A372">
-        <v>371</v>
-      </c>
-      <c r="B372" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C372" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D372" t="s">
-        <v>91</v>
-      </c>
-      <c r="E372" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A373">
-        <v>372</v>
-      </c>
-      <c r="B373" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C373" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D373" t="s">
-        <v>92</v>
-      </c>
-      <c r="E373" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A374">
-        <v>373</v>
-      </c>
-      <c r="B374" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C374" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D374" t="s">
-        <v>93</v>
-      </c>
-      <c r="E374" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A375">
-        <v>374</v>
-      </c>
-      <c r="B375" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C375" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D375" t="s">
-        <v>94</v>
-      </c>
-      <c r="E375" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A376">
-        <v>375</v>
-      </c>
-      <c r="B376" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C376" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D376" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E376" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A377">
-        <v>376</v>
-      </c>
-      <c r="B377" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C377" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D377" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E377" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A378">
-        <v>377</v>
-      </c>
-      <c r="B378" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C378" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D378" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E378" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A379">
-        <v>378</v>
-      </c>
-      <c r="B379" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C379" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D379" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E379" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A380">
-        <v>379</v>
-      </c>
-      <c r="B380" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C380" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D380" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E380" t="s">
-        <v>94</v>
+      <c r="E333" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>